--- a/defect_category.xlsx
+++ b/defect_category.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018\SDET_CMU\CMU교육\발표자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\share_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9345" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tool_method" sheetId="8" r:id="rId1"/>
@@ -17,15 +17,16 @@
     <sheet name="severity" sheetId="10" r:id="rId3"/>
     <sheet name="통합" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
+    <sheet name="Code Review" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">통합!$A$1:$M$134</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId6"/>
-    <pivotCache cacheId="53" r:id="rId7"/>
-    <pivotCache cacheId="56" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="251">
   <si>
     <t>SonarQube</t>
   </si>
@@ -782,6 +783,46 @@
   </si>
   <si>
     <t>Minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콤플렉스 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edu.cmu.tartan.item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemMicrowave.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemGold.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemKey.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +830,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -818,8 +859,28 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,8 +893,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -882,13 +949,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,6 +1000,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,7 +1044,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[FeedBack_cliff.xlsx]tool_method!피벗 테이블1</c:name>
+    <c:name>[defect_category.xlsx]tool_method!피벗 테이블1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -968,19 +1062,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1173,11 +1255,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="407737008"/>
-        <c:axId val="412076416"/>
+        <c:axId val="259721312"/>
+        <c:axId val="259721704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="407737008"/>
+        <c:axId val="259721312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,7 +1302,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412076416"/>
+        <c:crossAx val="259721704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1228,7 +1310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="412076416"/>
+        <c:axId val="259721704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1361,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="407737008"/>
+        <c:crossAx val="259721312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1352,7 +1434,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[FeedBack_cliff.xlsx]defect reporter!피벗 테이블2</c:name>
+    <c:name>[defect_category.xlsx]defect reporter!피벗 테이블2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1370,23 +1452,10 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1423,9 +1492,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1499,7 +1566,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1575,11 +1641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="579538832"/>
-        <c:axId val="579540008"/>
+        <c:axId val="259722488"/>
+        <c:axId val="259722880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="579538832"/>
+        <c:axId val="259722488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1688,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579540008"/>
+        <c:crossAx val="259722880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1630,7 +1696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="579540008"/>
+        <c:axId val="259722880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1747,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579538832"/>
+        <c:crossAx val="259722488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,7 +1820,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[FeedBack_cliff.xlsx]severity!피벗 테이블3</c:name>
+    <c:name>[defect_category.xlsx]severity!피벗 테이블3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1772,23 +1838,10 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1825,9 +1878,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1901,7 +1952,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1965,11 +2015,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="577793512"/>
-        <c:axId val="577793120"/>
+        <c:axId val="259723664"/>
+        <c:axId val="260733288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="577793512"/>
+        <c:axId val="259723664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,7 +2062,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577793120"/>
+        <c:crossAx val="260733288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2020,7 +2070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="577793120"/>
+        <c:axId val="260733288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,7 +2121,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="577793512"/>
+        <c:crossAx val="259723664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5161,7 +5211,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="67">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="67">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -5235,7 +5285,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -5311,7 +5361,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블3" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="피벗 테이블3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -5641,7 +5691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -5856,8 +5906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6774,13 +6824,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>237</v>
@@ -6802,13 +6852,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>237</v>
@@ -6816,13 +6866,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D32" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>237</v>
@@ -6872,7 +6922,7 @@
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>165</v>
@@ -6886,7 +6936,7 @@
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>165</v>
@@ -6900,7 +6950,7 @@
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>165</v>
@@ -6970,13 +7020,13 @@
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>165</v>
+        <v>114</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>237</v>
@@ -6984,13 +7034,13 @@
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D44" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>237</v>
@@ -6998,13 +7048,13 @@
     </row>
     <row r="45" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D45" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>165</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>237</v>
@@ -7012,7 +7062,7 @@
     </row>
     <row r="46" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D46" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>165</v>
@@ -7026,10 +7076,10 @@
     </row>
     <row r="47" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D47" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>224</v>
+        <v>22</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>240</v>
@@ -7110,7 +7160,7 @@
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D53" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>224</v>
@@ -7166,7 +7216,7 @@
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D57" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>224</v>
@@ -7180,7 +7230,7 @@
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D58" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>224</v>
@@ -7488,10 +7538,10 @@
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D80" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>180</v>
+        <v>36</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>240</v>
@@ -7530,7 +7580,7 @@
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D83" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>180</v>
@@ -7558,7 +7608,7 @@
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D85" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>180</v>
@@ -7572,7 +7622,7 @@
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D86" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>180</v>
@@ -8020,10 +8070,10 @@
     </row>
     <row r="118" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D118" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>226</v>
+        <v>67</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>240</v>
@@ -8034,13 +8084,13 @@
     </row>
     <row r="119" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>237</v>
@@ -8257,6 +8307,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M134">
+    <sortState ref="A29:M119">
+      <sortCondition ref="G1:G134"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8266,8 +8321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9035,7 +9090,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -11499,6 +11554,2933 @@
       <c r="I111" s="2" t="s">
         <v>149</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="45.625" customWidth="1"/>
+    <col min="7" max="7" width="24.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11">
+        <v>15</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11">
+        <v>57</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>83</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11">
+        <v>97</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="11">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11">
+        <v>111</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11">
+        <v>117</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11">
+        <v>124</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>147</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11">
+        <v>162</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="11">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
+        <v>165</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="11">
+        <v>188</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="11">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11">
+        <v>425</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="11">
+        <v>13</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11">
+        <v>479</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="11">
+        <v>14</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11">
+        <v>511</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="11">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>545</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="11">
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="11">
+        <v>551</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="11">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11">
+        <v>562</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="11">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11">
+        <v>566</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="11">
+        <v>19</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="11">
+        <v>581</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="11">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="11">
+        <v>654</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="11">
+        <v>21</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="11">
+        <v>742</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="11">
+        <v>22</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="11">
+        <v>773</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="11">
+        <v>23</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="11">
+        <v>21</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="11">
+        <v>24</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="11">
+        <v>33</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="11">
+        <v>25</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="11">
+        <v>43</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="11">
+        <v>26</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="11">
+        <v>81</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="11">
+        <v>27</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="11">
+        <v>121</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="11">
+        <v>28</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="11">
+        <v>136</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="11">
+        <v>29</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="11">
+        <v>172</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="11">
+        <v>30</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="11">
+        <v>304</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="11">
+        <v>31</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="11">
+        <v>32</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="11">
+        <v>32</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="11">
+        <v>37</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="11">
+        <v>33</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="11">
+        <v>39</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="11">
+        <v>34</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="11">
+        <v>46</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="11">
+        <v>35</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="11">
+        <v>46</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="11">
+        <v>36</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="11">
+        <v>59</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="11">
+        <v>37</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="11">
+        <v>62</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="11">
+        <v>38</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="11">
+        <v>80</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="11">
+        <v>39</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="11">
+        <v>63</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="11">
+        <v>40</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="11">
+        <v>73</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="11">
+        <v>41</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="11">
+        <v>100</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="11">
+        <v>42</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="11">
+        <v>43</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="11">
+        <v>49</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="11">
+        <v>44</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="11">
+        <v>61</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="11">
+        <v>45</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="11">
+        <v>47</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="11">
+        <v>46</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="11">
+        <v>66</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="11">
+        <v>47</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="11">
+        <v>79</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="11">
+        <v>48</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="11">
+        <v>55</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="11">
+        <v>49</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="11">
+        <v>65</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="11">
+        <v>50</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="11">
+        <v>65</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="11">
+        <v>51</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="11">
+        <v>40</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="11">
+        <v>52</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="11">
+        <v>47</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="11">
+        <v>53</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="11">
+        <v>68</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="11">
+        <v>54</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="11">
+        <v>75</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="11">
+        <v>55</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="11">
+        <v>84</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="11">
+        <v>56</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="11">
+        <v>95</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="11">
+        <v>57</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="11">
+        <v>18</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="11">
+        <v>58</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="11">
+        <v>34</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="11">
+        <v>59</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="11">
+        <v>41</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="11">
+        <v>60</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="11">
+        <v>17</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="11">
+        <v>61</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="11">
+        <v>15</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="11">
+        <v>62</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65" s="11">
+        <v>50</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="11">
+        <v>63</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="11">
+        <v>53</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="11">
+        <v>64</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="11">
+        <v>65</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="11">
+        <v>66</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="11">
+        <v>67</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="11">
+        <v>68</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="11">
+        <v>69</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="11">
+        <v>70</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="11">
+        <v>71</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="11">
+        <v>72</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="11">
+        <v>73</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="11">
+        <v>74</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="11">
+        <v>75</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="11">
+        <v>76</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="11">
+        <v>77</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="11">
+        <v>78</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="11">
+        <v>79</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="11">
+        <v>80</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="11">
+        <v>81</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="11">
+        <v>82</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="11">
+        <v>83</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="11">
+        <v>84</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87" s="11">
+        <v>7</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="11">
+        <v>85</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" s="11">
+        <v>41</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="11">
+        <v>86</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E89" s="11">
+        <v>46</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="11">
+        <v>87</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" s="11">
+        <v>68</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="11">
+        <v>88</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E91" s="11">
+        <v>71</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="11">
+        <v>89</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="11">
+        <v>74</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="11">
+        <v>90</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" s="11">
+        <v>123</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="11">
+        <v>91</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" s="11">
+        <v>176</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="11">
+        <v>92</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" s="11">
+        <v>205</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="11">
+        <v>93</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" s="11">
+        <v>212</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="11">
+        <v>94</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E97" s="11">
+        <v>231</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="11">
+        <v>95</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E98" s="11">
+        <v>249</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="11">
+        <v>96</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="11">
+        <v>273</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G99" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="11">
+        <v>97</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E100" s="11">
+        <v>4</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="11">
+        <v>98</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E101" s="11">
+        <v>7</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G101" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="11">
+        <v>99</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="11">
+        <v>76</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="11">
+        <v>100</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E103" s="11">
+        <v>91</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G103" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="11">
+        <v>101</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="11">
+        <v>41</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G104" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="11">
+        <v>102</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="11">
+        <v>53</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="11">
+        <v>103</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" s="11">
+        <v>62</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G106" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="11">
+        <v>104</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E107" s="11">
+        <v>89</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G107" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="11">
+        <v>105</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" s="11">
+        <v>18</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G108" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="11">
+        <v>106</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E109" s="11">
+        <v>26</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G109" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="11">
+        <v>107</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110" s="11">
+        <v>16</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="11">
+        <v>108</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" s="11">
+        <v>50</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G111" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="11">
+        <v>109</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" s="11">
+        <v>100</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="11">
+        <v>110</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" s="11">
+        <v>111</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H114" s="3"/>
+      <c r="J114" s="3"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H115" s="3"/>
+      <c r="J115" s="3"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H116" s="3"/>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H117" s="3"/>
+      <c r="J117" s="3"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H119" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/defect_category.xlsx
+++ b/defect_category.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="375">
   <si>
     <t>SonarQube</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,14 +525,6 @@
     <t>[Defect] Can't detonate dynamite while holding dynamite</t>
   </si>
   <si>
-    <t>sungho chin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Major</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INTEGRATION_TEST_DEFECT</t>
   </si>
   <si>
@@ -570,10 +562,6 @@
     <t>amond200</t>
   </si>
   <si>
-    <t xml:space="preserve">Sujung Lyu </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SDET-21</t>
   </si>
   <si>
@@ -692,26 +680,6 @@
   </si>
   <si>
     <t>[Defect] Item can be put without Item destorying</t>
-  </si>
-  <si>
-    <t>SonarQube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SonarQube</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinhyuk Yang </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyoyeon Hwang </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jonggoo Lee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Code Review</t>
@@ -1668,12 +1636,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A198" sqref="A198:XFD198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="118.25" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
@@ -1732,25 +1701,25 @@
         <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C2">
         <v>10099</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J2" s="4">
         <v>43305.701388888891</v>
@@ -1764,25 +1733,25 @@
         <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C3">
         <v>10107</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J3" s="4">
         <v>43305.898611111108</v>
@@ -1796,28 +1765,28 @@
         <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C4">
         <v>10108</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J4" s="4">
         <v>43305.900694444441</v>
@@ -1831,25 +1800,25 @@
         <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C5">
         <v>10109</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J5" s="4">
         <v>43305.904166666667</v>
@@ -1863,28 +1832,28 @@
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C6">
         <v>10110</v>
       </c>
       <c r="D6" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J6" s="4">
         <v>43305.908333333333</v>
@@ -1898,28 +1867,28 @@
         <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C7">
         <v>10111</v>
       </c>
       <c r="D7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J7" s="4">
         <v>43305.909722222219</v>
@@ -1933,28 +1902,28 @@
         <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C8">
         <v>10113</v>
       </c>
       <c r="D8" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F8" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G8" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H8" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J8" s="4">
         <v>43306.34097222222</v>
@@ -1968,28 +1937,28 @@
         <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C9">
         <v>10114</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E9" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G9" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H9" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J9" s="4">
         <v>43306.356944444444</v>
@@ -2003,28 +1972,28 @@
         <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C10">
         <v>10115</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G10" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J10" s="4">
         <v>43306.361805555556</v>
@@ -2038,28 +2007,28 @@
         <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C11">
         <v>10116</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G11" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H11" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J11" s="4">
         <v>43306.364583333336</v>
@@ -2073,28 +2042,28 @@
         <v>158</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C12">
         <v>10119</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H12" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J12" s="4">
         <v>43306.373611111114</v>
@@ -2108,25 +2077,25 @@
         <v>158</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C13">
         <v>10120</v>
       </c>
       <c r="D13" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="E13" t="s">
         <v>136</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J13" s="4">
         <v>43306.455555555556</v>
@@ -2140,25 +2109,25 @@
         <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C14">
         <v>10121</v>
       </c>
       <c r="D14" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E14" t="s">
         <v>136</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G14" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J14" s="4">
         <v>43306.953472222223</v>
@@ -2172,28 +2141,28 @@
         <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C15">
         <v>10123</v>
       </c>
       <c r="D15" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G15" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J15" s="4">
         <v>43306.961111111108</v>
@@ -2207,28 +2176,28 @@
         <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C16">
         <v>10124</v>
       </c>
       <c r="D16" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="E16" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F16" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G16" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J16" s="4">
         <v>43306.962500000001</v>
@@ -2242,28 +2211,28 @@
         <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C17">
         <v>10125</v>
       </c>
       <c r="D17" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E17" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F17" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G17" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H17" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J17" s="4">
         <v>43306.962500000001</v>
@@ -2277,28 +2246,28 @@
         <v>158</v>
       </c>
       <c r="B18" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C18">
         <v>10126</v>
       </c>
       <c r="D18" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E18" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F18" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G18" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H18" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J18" s="4">
         <v>43306.963194444441</v>
@@ -2312,28 +2281,28 @@
         <v>158</v>
       </c>
       <c r="B19" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C19">
         <v>10128</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E19" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F19" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G19" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H19" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J19" s="4">
         <v>43306.963194444441</v>
@@ -2347,28 +2316,28 @@
         <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C20">
         <v>10129</v>
       </c>
       <c r="D20" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E20" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F20" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G20" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H20" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J20" s="4">
         <v>43306.963194444441</v>
@@ -2382,28 +2351,28 @@
         <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C21">
         <v>10130</v>
       </c>
       <c r="D21" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E21" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F21" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G21" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H21" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J21" s="4">
         <v>43306.963194444441</v>
@@ -2417,28 +2386,28 @@
         <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C22">
         <v>10131</v>
       </c>
       <c r="D22" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F22" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G22" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H22" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J22" s="4">
         <v>43306.963888888888</v>
@@ -2452,28 +2421,28 @@
         <v>158</v>
       </c>
       <c r="B23" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C23">
         <v>10132</v>
       </c>
       <c r="D23" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E23" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F23" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G23" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H23" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J23" s="4">
         <v>43306.963888888888</v>
@@ -2487,28 +2456,28 @@
         <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C24">
         <v>10133</v>
       </c>
       <c r="D24" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E24" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F24" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G24" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H24" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J24" s="4">
         <v>43306.964583333334</v>
@@ -2522,28 +2491,28 @@
         <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C25">
         <v>10140</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J25" s="4">
         <v>43306.990277777775</v>
@@ -2557,28 +2526,28 @@
         <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C26">
         <v>10141</v>
       </c>
       <c r="D26" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G26" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J26" s="4">
         <v>43306.997916666667</v>
@@ -2592,28 +2561,28 @@
         <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C27">
         <v>10142</v>
       </c>
       <c r="D27" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G27" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J27" s="4">
         <v>43307.011805555558</v>
@@ -2627,28 +2596,28 @@
         <v>158</v>
       </c>
       <c r="B28" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C28">
         <v>10143</v>
       </c>
       <c r="D28" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G28" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H28" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J28" s="4">
         <v>43307.019444444442</v>
@@ -2662,28 +2631,28 @@
         <v>158</v>
       </c>
       <c r="B29" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C29">
         <v>10144</v>
       </c>
       <c r="D29" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G29" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J29" s="4">
         <v>43307.021527777775</v>
@@ -2697,28 +2666,28 @@
         <v>158</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C30">
         <v>10145</v>
       </c>
       <c r="D30" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G30" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J30" s="4">
         <v>43307.34652777778</v>
@@ -2732,25 +2701,25 @@
         <v>158</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C31">
         <v>10150</v>
       </c>
       <c r="D31" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G31" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J31" s="4">
         <v>43309.679166666669</v>
@@ -2764,25 +2733,25 @@
         <v>158</v>
       </c>
       <c r="B32" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C32">
         <v>10151</v>
       </c>
       <c r="D32" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E32" t="s">
         <v>136</v>
       </c>
       <c r="F32" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J32" s="4">
         <v>43309.692361111112</v>
@@ -2796,28 +2765,28 @@
         <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C33">
         <v>10153</v>
       </c>
       <c r="D33" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J33" s="4">
         <v>43310.835416666669</v>
@@ -2831,13 +2800,13 @@
         <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C34">
         <v>10155</v>
       </c>
       <c r="D34" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E34" t="s">
         <v>136</v>
@@ -2846,13 +2815,13 @@
         <v>136</v>
       </c>
       <c r="G34" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J34" s="4">
         <v>43310.915277777778</v>
@@ -2866,13 +2835,13 @@
         <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C35">
         <v>10156</v>
       </c>
       <c r="D35" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E35" t="s">
         <v>136</v>
@@ -2881,13 +2850,13 @@
         <v>136</v>
       </c>
       <c r="G35" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H35" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J35" s="4">
         <v>43311.345138888886</v>
@@ -2901,13 +2870,13 @@
         <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C36">
         <v>10157</v>
       </c>
       <c r="D36" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E36" t="s">
         <v>136</v>
@@ -2916,13 +2885,13 @@
         <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H36" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J36" s="4">
         <v>43311.347916666666</v>
@@ -2936,13 +2905,13 @@
         <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C37">
         <v>10158</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E37" t="s">
         <v>136</v>
@@ -2951,13 +2920,13 @@
         <v>136</v>
       </c>
       <c r="G37" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H37" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J37" s="4">
         <v>43311.349305555559</v>
@@ -2971,28 +2940,28 @@
         <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C38">
         <v>10159</v>
       </c>
       <c r="D38" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J38" s="4">
         <v>43311.383333333331</v>
@@ -3006,28 +2975,28 @@
         <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C39">
         <v>10160</v>
       </c>
       <c r="D39" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F39" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G39" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J39" s="4">
         <v>43311.384722222225</v>
@@ -3041,13 +3010,13 @@
         <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C40">
         <v>10161</v>
       </c>
       <c r="D40" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E40" t="s">
         <v>136</v>
@@ -3056,13 +3025,13 @@
         <v>136</v>
       </c>
       <c r="G40" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J40" s="4">
         <v>43311.462500000001</v>
@@ -3076,13 +3045,13 @@
         <v>158</v>
       </c>
       <c r="B41" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C41">
         <v>10162</v>
       </c>
       <c r="D41" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E41" t="s">
         <v>136</v>
@@ -3091,13 +3060,13 @@
         <v>136</v>
       </c>
       <c r="G41" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J41" s="4">
         <v>43311.464583333334</v>
@@ -3111,28 +3080,28 @@
         <v>158</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C42">
         <v>10164</v>
       </c>
       <c r="D42" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F42" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G42" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J42" s="4">
         <v>43311.474305555559</v>
@@ -3146,28 +3115,28 @@
         <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C43">
         <v>10165</v>
       </c>
       <c r="D43" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F43" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J43" s="4">
         <v>43311.593055555553</v>
@@ -3181,28 +3150,28 @@
         <v>158</v>
       </c>
       <c r="B44" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C44">
         <v>10166</v>
       </c>
       <c r="D44" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G44" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J44" s="4">
         <v>43311.658333333333</v>
@@ -3216,28 +3185,28 @@
         <v>158</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C45">
         <v>10174</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F45" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G45" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J45" s="4">
         <v>43312.456944444442</v>
@@ -3251,28 +3220,28 @@
         <v>158</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C46">
         <v>10175</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="E46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G46" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J46" s="4">
         <v>43312.463194444441</v>
@@ -3286,25 +3255,25 @@
         <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C47">
         <v>10177</v>
       </c>
       <c r="D47" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G47" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J47" s="4">
         <v>43312.59097222222</v>
@@ -3318,28 +3287,28 @@
         <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C48">
         <v>10178</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G48" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J48" s="4">
         <v>43312.707638888889</v>
@@ -3353,28 +3322,28 @@
         <v>158</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C49">
         <v>10181</v>
       </c>
       <c r="D49" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E49" t="s">
         <v>136</v>
       </c>
       <c r="F49" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G49" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J49" s="4">
         <v>43312.925694444442</v>
@@ -3388,28 +3357,28 @@
         <v>158</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C50">
         <v>10182</v>
       </c>
       <c r="D50" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G50" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H50" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J50" s="4">
         <v>43313.354166666664</v>
@@ -3423,25 +3392,25 @@
         <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C51">
         <v>10183</v>
       </c>
       <c r="D51" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G51" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J51" s="4">
         <v>43313.35833333333</v>
@@ -3455,25 +3424,25 @@
         <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C52">
         <v>10184</v>
       </c>
       <c r="D52" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F52" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G52" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J52" s="4">
         <v>43313.36041666667</v>
@@ -3487,25 +3456,25 @@
         <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C53">
         <v>10185</v>
       </c>
       <c r="D53" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F53" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G53" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J53" s="4">
         <v>43313.361805555556</v>
@@ -3519,25 +3488,25 @@
         <v>158</v>
       </c>
       <c r="B54" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C54">
         <v>10186</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G54" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J54" s="4">
         <v>43313.365277777775</v>
@@ -3551,25 +3520,25 @@
         <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C55">
         <v>10187</v>
       </c>
       <c r="D55" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F55" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G55" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J55" s="4">
         <v>43313.368055555555</v>
@@ -3583,25 +3552,25 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C56">
         <v>10188</v>
       </c>
       <c r="D56" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F56" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G56" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J56" s="4">
         <v>43313.371527777781</v>
@@ -3615,28 +3584,28 @@
         <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C57">
         <v>10018</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E57" t="s">
         <v>136</v>
       </c>
       <c r="F57" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G57" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J57" s="4">
         <v>43294.708333333336</v>
@@ -3650,25 +3619,25 @@
         <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C58">
         <v>10189</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F58" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G58" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J58" s="4">
         <v>43313.373611111114</v>
@@ -3682,25 +3651,25 @@
         <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C59">
         <v>10190</v>
       </c>
       <c r="D59" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F59" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G59" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H59" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J59" s="4">
         <v>43313.375694444447</v>
@@ -3714,25 +3683,25 @@
         <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C60">
         <v>10191</v>
       </c>
       <c r="D60" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G60" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J60" s="4">
         <v>43313.37777777778</v>
@@ -3746,25 +3715,25 @@
         <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C61">
         <v>10192</v>
       </c>
       <c r="D61" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F61" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G61" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H61" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J61" s="4">
         <v>43313.379166666666</v>
@@ -3778,25 +3747,25 @@
         <v>158</v>
       </c>
       <c r="B62" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C62">
         <v>10193</v>
       </c>
       <c r="D62" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
         <v>136</v>
       </c>
       <c r="F62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G62" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J62" s="4">
         <v>43313.42291666667</v>
@@ -3810,28 +3779,28 @@
         <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C63">
         <v>10194</v>
       </c>
       <c r="D63" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E63" t="s">
         <v>136</v>
       </c>
       <c r="F63" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I63" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J63" s="4">
         <v>43313.441666666666</v>
@@ -3845,28 +3814,28 @@
         <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C64">
         <v>10195</v>
       </c>
       <c r="D64" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F64" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G64" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J64" s="4">
         <v>43313.449305555558</v>
@@ -3880,25 +3849,25 @@
         <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C65">
         <v>10196</v>
       </c>
       <c r="D65" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E65" t="s">
         <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G65" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J65" s="4">
         <v>43313.45208333333</v>
@@ -3912,28 +3881,28 @@
         <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C66">
         <v>10197</v>
       </c>
       <c r="D66" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E66" t="s">
         <v>136</v>
       </c>
       <c r="F66" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G66" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H66" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J66" s="4">
         <v>43313.477777777778</v>
@@ -3947,25 +3916,25 @@
         <v>158</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C67">
         <v>10198</v>
       </c>
       <c r="D67" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E67" t="s">
         <v>136</v>
       </c>
       <c r="F67" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G67" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H67" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J67" s="4">
         <v>43313.48541666667</v>
@@ -3979,28 +3948,28 @@
         <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C68">
         <v>10019</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F68" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G68" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J68" s="4">
         <v>43294.709722222222</v>
@@ -4014,28 +3983,28 @@
         <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C69">
         <v>10199</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G69" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J69" s="4">
         <v>43313.495138888888</v>
@@ -4049,28 +4018,28 @@
         <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C70">
         <v>10020</v>
       </c>
       <c r="D70" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E70" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G70" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H70" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J70" s="4">
         <v>43294.71597222222</v>
@@ -4084,28 +4053,28 @@
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C71">
         <v>10021</v>
       </c>
       <c r="D71" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G71" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H71" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I71" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J71" s="4">
         <v>43294.722222222219</v>
@@ -4119,28 +4088,28 @@
         <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C72">
         <v>10022</v>
       </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E72" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F72" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G72" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J72" s="4">
         <v>43294.723611111112</v>
@@ -4154,28 +4123,28 @@
         <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C73">
         <v>10023</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F73" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G73" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J73" s="4">
         <v>43297.338194444441</v>
@@ -4189,28 +4158,28 @@
         <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C74">
         <v>10024</v>
       </c>
       <c r="D74" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F74" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J74" s="4">
         <v>43297.347916666666</v>
@@ -4224,28 +4193,28 @@
         <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C75">
         <v>10025</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F75" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G75" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J75" s="4">
         <v>43297.351388888892</v>
@@ -4259,28 +4228,28 @@
         <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C76">
         <v>10026</v>
       </c>
       <c r="D76" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F76" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H76" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I76" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J76" s="4">
         <v>43297.354861111111</v>
@@ -4294,28 +4263,28 @@
         <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C77">
         <v>10027</v>
       </c>
       <c r="D77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F77" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J77" s="4">
         <v>43297.365972222222</v>
@@ -4329,28 +4298,28 @@
         <v>158</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C78">
         <v>10028</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F78" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G78" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J78" s="4">
         <v>43297.366666666669</v>
@@ -4364,28 +4333,28 @@
         <v>158</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C79">
         <v>10029</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E79" t="s">
         <v>136</v>
       </c>
       <c r="F79" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G79" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J79" s="4">
         <v>43297.368750000001</v>
@@ -4399,28 +4368,28 @@
         <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C80">
         <v>10030</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E80" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F80" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G80" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J80" s="4">
         <v>43297.376388888886</v>
@@ -4434,28 +4403,28 @@
         <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C81">
         <v>10031</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F81" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G81" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I81" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J81" s="4">
         <v>43297.379861111112</v>
@@ -4469,28 +4438,28 @@
         <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C82">
         <v>10032</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F82" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G82" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J82" s="4">
         <v>43297.385416666664</v>
@@ -4504,28 +4473,28 @@
         <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C83">
         <v>10033</v>
       </c>
       <c r="D83" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E83" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J83" s="4">
         <v>43297.386111111111</v>
@@ -4553,16 +4522,16 @@
         <v>136</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J84" s="4">
         <v>43299.888194444444</v>
@@ -4578,28 +4547,28 @@
         <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C85">
         <v>10046</v>
       </c>
       <c r="D85" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>136</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J85" s="4">
         <v>43299.898611111108</v>
@@ -4615,13 +4584,13 @@
         <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C86">
         <v>10047</v>
       </c>
       <c r="D86" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E86" t="s">
         <v>136</v>
@@ -4630,13 +4599,13 @@
         <v>136</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J86" s="4">
         <v>43299.915972222225</v>
@@ -4652,13 +4621,13 @@
         <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C87">
         <v>10050</v>
       </c>
       <c r="D87" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E87" t="s">
         <v>136</v>
@@ -4667,13 +4636,13 @@
         <v>136</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J87" s="4">
         <v>43299.951388888891</v>
@@ -4689,28 +4658,28 @@
         <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C88">
         <v>10051</v>
       </c>
       <c r="D88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E88" t="s">
         <v>136</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J88" s="4">
         <v>43299.957638888889</v>
@@ -4726,28 +4695,28 @@
         <v>158</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C89">
         <v>10052</v>
       </c>
       <c r="D89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J89" s="4">
         <v>43299.993750000001</v>
@@ -4763,13 +4732,13 @@
         <v>158</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C90">
         <v>10053</v>
       </c>
       <c r="D90" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E90" t="s">
         <v>136</v>
@@ -4778,13 +4747,13 @@
         <v>136</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J90" s="4">
         <v>43300.010416666664</v>
@@ -4800,28 +4769,28 @@
         <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C91">
         <v>10084</v>
       </c>
       <c r="D91" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="E91" t="s">
         <v>136</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J91" s="4">
         <v>43304.701388888891</v>
@@ -4837,28 +4806,28 @@
         <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C92">
         <v>10085</v>
       </c>
       <c r="D92" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E92" t="s">
         <v>136</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J92" s="4">
         <v>43304.715277777781</v>
@@ -4874,28 +4843,28 @@
         <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C93">
         <v>10086</v>
       </c>
       <c r="D93" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J93" s="4">
         <v>43304.724999999999</v>
@@ -4911,25 +4880,25 @@
         <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C94">
         <v>10089</v>
       </c>
       <c r="D94" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E94" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I94"/>
       <c r="J94" s="4">
@@ -4946,25 +4915,25 @@
         <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C95">
         <v>10090</v>
       </c>
       <c r="D95" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E95" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I95"/>
       <c r="J95" s="4">
@@ -4976,33 +4945,33 @@
       <c r="L95"/>
       <c r="M95"/>
     </row>
-    <row r="96" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C96">
         <v>10092</v>
       </c>
       <c r="D96" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J96" s="4">
         <v>43305.405555555553</v>
@@ -5013,1544 +4982,1544 @@
       <c r="L96"/>
       <c r="M96"/>
     </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D97" s="2" t="s">
+    <row r="97" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="G97" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D98" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="G98" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H98" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D99" s="2" t="s">
+      <c r="D101" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H99" s="2" t="s">
+      <c r="G116" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H100" s="5" t="s">
+      <c r="D119" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="101" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="102" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D102" s="2" t="s">
+      <c r="D125" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="2" t="s">
+      <c r="G128" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="103" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="104" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D104" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="105" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="2" t="s">
+      <c r="D129" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="106" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D106" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H106" s="2" t="s">
+      <c r="D190" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="107" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D107" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="108" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="109" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D110" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D111" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="112" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="113" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="114" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="115" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D115" s="2" t="s">
+      <c r="D191" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="116" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D116" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="117" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="118" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D118" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="119" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D119" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="120" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D120" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="121" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D121" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="122" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D122" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="123" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D123" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="124" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D124" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="125" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D125" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="126" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D126" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="127" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D127" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="128" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="129" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D129" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="130" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D130" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="131" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D131" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="132" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D132" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="133" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D133" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="134" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D134" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="135" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D135" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="136" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D136" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="137" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D137" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="138" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D138" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="139" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D139" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="140" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D140" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="141" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D141" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="142" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D142" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="143" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D143" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H143" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="144" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D144" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H144" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="145" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D145" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="146" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D146" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="147" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D147" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="148" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D148" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="149" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D149" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="150" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D150" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="151" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D151" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="152" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D152" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="153" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D153" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="154" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D154" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="155" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D155" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="156" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D156" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="157" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D157" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="158" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D158" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="159" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D159" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="160" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="161" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D161" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="162" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D162" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="163" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D163" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="164" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D164" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="165" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D165" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="166" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D166" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="167" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D167" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="168" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D168" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="169" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D169" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="170" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D170" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="171" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D171" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="172" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D172" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="173" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D173" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="174" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D174" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G174" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="175" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D175" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F175" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G175" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="176" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D176" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="177" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D177" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="178" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D178" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="179" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D179" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="180" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D180" s="2" t="s">
+      <c r="G191" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="181" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D181" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F181" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="182" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D182" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="183" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D183" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G183" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="184" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D184" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="185" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D185" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="186" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D186" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G186" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="187" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D187" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G187" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="188" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D188" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G188" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="189" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D189" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="190" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D190" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G190" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="191" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D191" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G191" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="192" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D192" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="193" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D193" s="2" t="s">
+      <c r="G193" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D194" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F193" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="194" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D194" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G194" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="195" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D195" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D195" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F195" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G195" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="196" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D196" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D196" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F196" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G196" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="197" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D197" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D197" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F197" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G197" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="198" spans="4:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D198" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D198" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F198" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G198" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="199" spans="4:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D199" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D199" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F199" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G199" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="200" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D200" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F200" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G200" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="201" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D201" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A201" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D201" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F201" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G201" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="202" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D202" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D202" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F202" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G202" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="203" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D203" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D203" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F203" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G203" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="204" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D204" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D204" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F204" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G204" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="205" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D205" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D205" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F205" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G205" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="206" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D206" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D206" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F206" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G206" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>217</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9813,8 +9782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J119"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9846,10 +9815,10 @@
         <v>133</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -9869,13 +9838,13 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7">
         <v>2</v>
       </c>
@@ -9895,13 +9864,13 @@
         <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7">
         <v>3</v>
       </c>
@@ -9921,13 +9890,13 @@
         <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -9947,13 +9916,13 @@
         <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -9970,16 +9939,16 @@
         <v>7</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -9999,7 +9968,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>0</v>
@@ -10025,13 +9994,13 @@
         <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7">
         <v>8</v>
       </c>
@@ -10048,16 +10017,16 @@
         <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7">
         <v>9</v>
       </c>
@@ -10077,13 +10046,13 @@
         <v>4</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7">
         <v>10</v>
       </c>
@@ -10103,13 +10072,13 @@
         <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7">
         <v>11</v>
       </c>
@@ -10129,13 +10098,13 @@
         <v>4</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7">
         <v>12</v>
       </c>
@@ -10152,16 +10121,16 @@
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7">
         <v>13</v>
       </c>
@@ -10178,16 +10147,16 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7">
         <v>14</v>
       </c>
@@ -10204,16 +10173,16 @@
         <v>14</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7">
         <v>15</v>
       </c>
@@ -10233,13 +10202,13 @@
         <v>8</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7">
         <v>16</v>
       </c>
@@ -10259,13 +10228,13 @@
         <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="7">
         <v>17</v>
       </c>
@@ -10285,13 +10254,13 @@
         <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="7">
         <v>18</v>
       </c>
@@ -10311,13 +10280,13 @@
         <v>6</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="7">
         <v>19</v>
       </c>
@@ -10337,13 +10306,13 @@
         <v>18</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7">
         <v>20</v>
       </c>
@@ -10363,10 +10332,10 @@
         <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -10389,10 +10358,10 @@
         <v>20</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -10412,16 +10381,16 @@
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7">
         <v>23</v>
       </c>
@@ -10438,13 +10407,13 @@
         <v>24</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -10467,7 +10436,7 @@
         <v>6</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>0</v>
@@ -10493,7 +10462,7 @@
         <v>6</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>0</v>
@@ -10519,7 +10488,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>0</v>
@@ -10545,7 +10514,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>0</v>
@@ -10571,13 +10540,13 @@
         <v>30</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="7">
         <v>29</v>
       </c>
@@ -10594,13 +10563,13 @@
         <v>31</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -10623,13 +10592,13 @@
         <v>4</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="7">
         <v>31</v>
       </c>
@@ -10646,16 +10615,16 @@
         <v>31</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7">
         <v>32</v>
       </c>
@@ -10675,13 +10644,13 @@
         <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="7">
         <v>33</v>
       </c>
@@ -10698,13 +10667,13 @@
         <v>34</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -10724,16 +10693,16 @@
         <v>35</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="7">
         <v>35</v>
       </c>
@@ -10753,7 +10722,7 @@
         <v>39</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>0</v>
@@ -10779,7 +10748,7 @@
         <v>11</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>0</v>
@@ -10805,7 +10774,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>0</v>
@@ -10831,7 +10800,7 @@
         <v>39</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>0</v>
@@ -10857,7 +10826,7 @@
         <v>6</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>0</v>
@@ -10883,7 +10852,7 @@
         <v>39</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>0</v>
@@ -10909,7 +10878,7 @@
         <v>39</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>0</v>
@@ -10935,7 +10904,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>0</v>
@@ -10961,7 +10930,7 @@
         <v>6</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>0</v>
@@ -10987,7 +10956,7 @@
         <v>39</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>0</v>
@@ -11013,7 +10982,7 @@
         <v>39</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>0</v>
@@ -11039,7 +11008,7 @@
         <v>6</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>0</v>
@@ -11065,7 +11034,7 @@
         <v>39</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>0</v>
@@ -11091,7 +11060,7 @@
         <v>6</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>0</v>
@@ -11117,7 +11086,7 @@
         <v>39</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>0</v>
@@ -11143,7 +11112,7 @@
         <v>39</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>0</v>
@@ -11169,13 +11138,13 @@
         <v>39</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="7">
         <v>52</v>
       </c>
@@ -11195,13 +11164,13 @@
         <v>39</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="7">
         <v>53</v>
       </c>
@@ -11221,13 +11190,13 @@
         <v>39</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="7">
         <v>54</v>
       </c>
@@ -11247,13 +11216,13 @@
         <v>39</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="7">
         <v>55</v>
       </c>
@@ -11273,7 +11242,7 @@
         <v>39</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>0</v>
@@ -11299,13 +11268,13 @@
         <v>39</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="7">
         <v>57</v>
       </c>
@@ -11325,7 +11294,7 @@
         <v>6</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>0</v>
@@ -11351,7 +11320,7 @@
         <v>6</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>0</v>
@@ -11377,13 +11346,13 @@
         <v>4</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="7">
         <v>60</v>
       </c>
@@ -11403,13 +11372,13 @@
         <v>6</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B64" s="7">
         <v>61</v>
       </c>
@@ -11429,10 +11398,10 @@
         <v>6</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -11455,10 +11424,10 @@
         <v>30</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -11481,21 +11450,21 @@
         <v>6</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="7">
         <v>64</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>70</v>
@@ -11507,21 +11476,21 @@
         <v>18</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="7">
         <v>65</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>72</v>
@@ -11533,21 +11502,21 @@
         <v>20</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="7">
         <v>66</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>74</v>
@@ -11556,24 +11525,24 @@
         <v>75</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="7">
         <v>67</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>76</v>
@@ -11585,21 +11554,21 @@
         <v>22</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="7">
         <v>68</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>79</v>
@@ -11611,21 +11580,21 @@
         <v>4</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="7">
         <v>69</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>81</v>
@@ -11637,18 +11606,18 @@
         <v>4</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="7">
         <v>70</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>82</v>
@@ -11663,18 +11632,18 @@
         <v>4</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B74" s="7">
         <v>71</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>83</v>
@@ -11689,18 +11658,18 @@
         <v>18</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="7">
         <v>72</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>84</v>
@@ -11715,18 +11684,18 @@
         <v>4</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="7">
         <v>73</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>86</v>
@@ -11741,18 +11710,18 @@
         <v>4</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="7">
         <v>74</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>89</v>
@@ -11767,18 +11736,18 @@
         <v>4</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="7">
         <v>75</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>90</v>
@@ -11793,21 +11762,21 @@
         <v>4</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="7">
         <v>76</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>91</v>
@@ -11819,18 +11788,18 @@
         <v>6</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="7">
         <v>77</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>93</v>
@@ -11845,18 +11814,18 @@
         <v>4</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="7">
         <v>78</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>95</v>
@@ -11871,18 +11840,18 @@
         <v>4</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="7">
         <v>79</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>96</v>
@@ -11897,18 +11866,18 @@
         <v>4</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="7">
         <v>80</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>97</v>
@@ -11923,18 +11892,18 @@
         <v>4</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="7">
         <v>81</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>98</v>
@@ -11949,18 +11918,18 @@
         <v>4</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B85" s="7">
         <v>82</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>99</v>
@@ -11975,13 +11944,13 @@
         <v>4</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="7">
         <v>83</v>
       </c>
@@ -12001,13 +11970,13 @@
         <v>4</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="7">
         <v>84</v>
       </c>
@@ -12027,13 +11996,13 @@
         <v>4</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="7">
         <v>85</v>
       </c>
@@ -12053,13 +12022,13 @@
         <v>39</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B89" s="7">
         <v>86</v>
       </c>
@@ -12079,13 +12048,13 @@
         <v>39</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="7">
         <v>87</v>
       </c>
@@ -12105,13 +12074,13 @@
         <v>39</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="7">
         <v>88</v>
       </c>
@@ -12131,13 +12100,13 @@
         <v>39</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="7">
         <v>89</v>
       </c>
@@ -12157,13 +12126,13 @@
         <v>39</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="7">
         <v>90</v>
       </c>
@@ -12183,13 +12152,13 @@
         <v>6</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="7">
         <v>91</v>
       </c>
@@ -12209,13 +12178,13 @@
         <v>39</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="7">
         <v>92</v>
       </c>
@@ -12235,13 +12204,13 @@
         <v>39</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="7">
         <v>93</v>
       </c>
@@ -12261,13 +12230,13 @@
         <v>4</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="7">
         <v>94</v>
       </c>
@@ -12284,16 +12253,16 @@
         <v>112</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="7">
         <v>95</v>
       </c>
@@ -12310,16 +12279,16 @@
         <v>113</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="7">
         <v>96</v>
       </c>
@@ -12339,13 +12308,13 @@
         <v>6</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="7">
         <v>97</v>
       </c>
@@ -12365,13 +12334,13 @@
         <v>4</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="7">
         <v>98</v>
       </c>
@@ -12391,13 +12360,13 @@
         <v>4</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="7">
         <v>99</v>
       </c>
@@ -12417,13 +12386,13 @@
         <v>39</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="7">
         <v>100</v>
       </c>
@@ -12443,13 +12412,13 @@
         <v>39</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="7">
         <v>101</v>
       </c>
@@ -12469,7 +12438,7 @@
         <v>39</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>0</v>
@@ -12495,7 +12464,7 @@
         <v>39</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>0</v>
@@ -12521,13 +12490,13 @@
         <v>39</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="7">
         <v>104</v>
       </c>
@@ -12547,13 +12516,13 @@
         <v>18</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="7">
         <v>105</v>
       </c>
@@ -12573,7 +12542,7 @@
         <v>39</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>0</v>
@@ -12599,13 +12568,13 @@
         <v>39</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="7">
         <v>107</v>
       </c>
@@ -12625,7 +12594,7 @@
         <v>4</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I110" s="2" t="s">
         <v>0</v>
@@ -12651,13 +12620,13 @@
         <v>39</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I111" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B112" s="7">
         <v>109</v>
       </c>
@@ -12677,13 +12646,13 @@
         <v>39</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="7">
         <v>110</v>
       </c>
@@ -12703,7 +12672,7 @@
         <v>39</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>0</v>

--- a/defect_category.xlsx
+++ b/defect_category.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET_CODE\share_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9345"/>
   </bookViews>
@@ -17,9 +12,10 @@
     <sheet name="Code Review" sheetId="11" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Code Review'!$B$3:$I$113</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">통합!$A$1:$M$206</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="379">
   <si>
     <t>SonarQube</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1180,6 +1176,21 @@
   </si>
   <si>
     <t>Minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>complex code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unused</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1626,7 +1637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1636,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D130" sqref="A127:D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4996,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>6</v>
       </c>
@@ -5010,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>6</v>
       </c>
@@ -5024,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>6</v>
       </c>
@@ -5038,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>217</v>
       </c>
@@ -5052,7 +5063,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>6</v>
       </c>
@@ -5080,7 +5091,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>217</v>
       </c>
@@ -5108,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>15</v>
       </c>
@@ -5136,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>218</v>
       </c>
@@ -5150,7 +5161,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>218</v>
       </c>
@@ -5164,7 +5175,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>218</v>
       </c>
@@ -5178,7 +5189,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>8</v>
       </c>
@@ -5192,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>6</v>
       </c>
@@ -5206,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>6</v>
       </c>
@@ -5220,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>6</v>
       </c>
@@ -5248,7 +5259,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>6</v>
       </c>
@@ -5262,7 +5273,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>20</v>
       </c>
@@ -5290,7 +5301,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>217</v>
       </c>
@@ -5304,7 +5315,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>6</v>
       </c>
@@ -5318,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>6</v>
       </c>
@@ -5332,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>8</v>
       </c>
@@ -5374,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>217</v>
       </c>
@@ -5402,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>217</v>
       </c>
@@ -5416,7 +5427,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>6</v>
       </c>
@@ -5430,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>217</v>
       </c>
@@ -5444,7 +5455,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>218</v>
       </c>
@@ -5458,7 +5469,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>39</v>
       </c>
@@ -5486,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>6</v>
       </c>
@@ -5500,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>39</v>
       </c>
@@ -5514,7 +5525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
         <v>6</v>
       </c>
@@ -5528,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>39</v>
       </c>
@@ -5542,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
         <v>39</v>
       </c>
@@ -5570,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>6</v>
       </c>
@@ -5584,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>39</v>
       </c>
@@ -5598,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>39</v>
       </c>
@@ -5612,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>6</v>
       </c>
@@ -5626,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
         <v>39</v>
       </c>
@@ -5640,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>6</v>
       </c>
@@ -5654,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
         <v>39</v>
       </c>
@@ -5668,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>39</v>
       </c>
@@ -5682,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
         <v>39</v>
       </c>
@@ -5696,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>39</v>
       </c>
@@ -5710,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>39</v>
       </c>
@@ -5724,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>39</v>
       </c>
@@ -5738,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>39</v>
       </c>
@@ -5752,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>39</v>
       </c>
@@ -5766,7 +5777,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>6</v>
       </c>
@@ -5780,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>6</v>
       </c>
@@ -5808,7 +5819,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>6</v>
       </c>
@@ -5822,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>6</v>
       </c>
@@ -5850,7 +5861,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>6</v>
       </c>
@@ -5878,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>20</v>
       </c>
@@ -5906,7 +5917,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>22</v>
       </c>
@@ -6032,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>6</v>
       </c>
@@ -6158,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>39</v>
       </c>
@@ -6172,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>39</v>
       </c>
@@ -6186,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
         <v>39</v>
       </c>
@@ -6200,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>39</v>
       </c>
@@ -6214,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>39</v>
       </c>
@@ -6228,7 +6239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>6</v>
       </c>
@@ -6242,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>39</v>
       </c>
@@ -6256,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>39</v>
       </c>
@@ -6284,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>217</v>
       </c>
@@ -6298,7 +6309,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
         <v>217</v>
       </c>
@@ -6312,7 +6323,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>6</v>
       </c>
@@ -6354,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
         <v>39</v>
       </c>
@@ -6368,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
         <v>39</v>
       </c>
@@ -6382,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>39</v>
       </c>
@@ -6438,7 +6449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>39</v>
       </c>
@@ -6452,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
         <v>39</v>
       </c>
@@ -6480,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>39</v>
       </c>
@@ -6494,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
         <v>39</v>
       </c>
@@ -6508,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>39</v>
       </c>
@@ -9782,8 +9793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J119"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I113"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9974,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7">
         <v>7</v>
       </c>
@@ -10069,7 +10080,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>377</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>215</v>
@@ -10199,7 +10210,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>8</v>
+        <v>377</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>215</v>
@@ -10338,7 +10349,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="7">
         <v>21</v>
       </c>
@@ -10364,7 +10375,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7">
         <v>22</v>
       </c>
@@ -10416,7 +10427,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7">
         <v>24</v>
       </c>
@@ -10442,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7">
         <v>25</v>
       </c>
@@ -10468,7 +10479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7">
         <v>26</v>
       </c>
@@ -10485,16 +10496,16 @@
         <v>27</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>8</v>
+        <v>376</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="7">
         <v>27</v>
       </c>
@@ -10520,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7">
         <v>28</v>
       </c>
@@ -10540,7 +10551,7 @@
         <v>30</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>0</v>
@@ -10572,7 +10583,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7">
         <v>30</v>
       </c>
@@ -10676,7 +10687,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7">
         <v>34</v>
       </c>
@@ -10728,7 +10739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="7">
         <v>36</v>
       </c>
@@ -10748,13 +10759,13 @@
         <v>11</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="7">
         <v>37</v>
       </c>
@@ -10780,7 +10791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="7">
         <v>38</v>
       </c>
@@ -10806,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="7">
         <v>39</v>
       </c>
@@ -10832,7 +10843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="7">
         <v>40</v>
       </c>
@@ -10858,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="7">
         <v>41</v>
       </c>
@@ -10884,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="7">
         <v>42</v>
       </c>
@@ -10910,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="7">
         <v>43</v>
       </c>
@@ -10936,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="7">
         <v>44</v>
       </c>
@@ -10962,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="7">
         <v>45</v>
       </c>
@@ -10988,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="7">
         <v>46</v>
       </c>
@@ -11014,7 +11025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="7">
         <v>47</v>
       </c>
@@ -11040,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B51" s="7">
         <v>48</v>
       </c>
@@ -11066,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="7">
         <v>49</v>
       </c>
@@ -11092,7 +11103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="7">
         <v>50</v>
       </c>
@@ -11118,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" s="7">
         <v>51</v>
       </c>
@@ -11248,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="7">
         <v>56</v>
       </c>
@@ -11300,7 +11311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="7">
         <v>58</v>
       </c>
@@ -11326,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="7">
         <v>59</v>
       </c>
@@ -11404,7 +11415,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="7">
         <v>62</v>
       </c>
@@ -11430,7 +11441,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="7">
         <v>63</v>
       </c>
@@ -11476,7 +11487,7 @@
         <v>18</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>0</v>
@@ -11551,7 +11562,7 @@
         <v>77</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>22</v>
+        <v>378</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>215</v>
@@ -11658,7 +11669,7 @@
         <v>18</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>0</v>
@@ -12516,7 +12527,7 @@
         <v>18</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>0</v>
@@ -12548,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="7">
         <v>106</v>
       </c>
@@ -12600,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B111" s="7">
         <v>108</v>
       </c>
@@ -12701,6 +12712,7 @@
       <c r="H119" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:I113"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/defect_category.xlsx
+++ b/defect_category.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="382">
   <si>
     <t>SonarQube</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1191,6 +1191,18 @@
   </si>
   <si>
     <t>unused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bad practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SonarQube2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,7 +1286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1325,13 +1337,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1364,6 +1387,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,7 +1663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1645,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D130" sqref="A127:D130"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5121,7 +5147,7 @@
     </row>
     <row r="106" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>15</v>
+        <v>379</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>14</v>
@@ -5191,7 +5217,7 @@
     </row>
     <row r="111" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>16</v>
@@ -5351,7 +5377,7 @@
         <v>27</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>0</v>
@@ -5379,7 +5405,7 @@
         <v>29</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>0</v>
@@ -5491,7 +5517,7 @@
         <v>40</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>0</v>
@@ -5883,7 +5909,7 @@
         <v>17</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>0</v>
@@ -5919,7 +5945,7 @@
     </row>
     <row r="163" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
-        <v>22</v>
+        <v>380</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>77</v>
@@ -5981,7 +6007,7 @@
         <v>17</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>0</v>
@@ -6443,7 +6469,7 @@
         <v>120</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>0</v>
@@ -6531,6 +6557,11 @@
       </c>
       <c r="H206" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H207" s="11" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -9793,7 +9824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J119"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>

--- a/defect_category.xlsx
+++ b/defect_category.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="22950" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="통합" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2678" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="414">
   <si>
     <t>SonarQube</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1202,7 +1202,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2 duplicated blocks of code must be removed.</t>
+  </si>
+  <si>
+    <t>2 duplicated blocks of code must be removed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove the declaration of thrown exception 'java.lang.NullPointerException' which is a runtime exception.</t>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity from 16 to the 15 allowed.</t>
+  </si>
+  <si>
+    <t>complex code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce the total number of break and continue statements in this loop to use at most one.</t>
+  </si>
+  <si>
+    <t>Replace the synchronized class "StringBuffer" by an unsynchronized one such as "StringBuilder".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity from 35 to the 15 allowed.</t>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity from 23 to the 15 allowed.</t>
+  </si>
+  <si>
+    <t>This block of commented-out lines of code should be removed.</t>
+  </si>
+  <si>
+    <t>unused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refactor this method to reduce its Cognitive Complexity from 18 to the 15 allowed.</t>
+  </si>
+  <si>
+    <t>complex code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use "Integer.parseInt" for this string-to-int conversion.</t>
+  </si>
+  <si>
+    <t>Rename "selectionKey" which hides the field declared at line 23.</t>
+  </si>
+  <si>
+    <t>Remove this unused method parameter "key".</t>
+  </si>
+  <si>
+    <t>unused</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extract this nested try block into a separate method.</t>
+  </si>
+  <si>
+    <t>Remove this unused "byteCount" local variable.</t>
+  </si>
+  <si>
+    <t>Immediately return this expression instead of assigning it to the temporary variable "key".</t>
+  </si>
+  <si>
+    <t>bad practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immediately return this expression instead of assigning it to the temporary variable "encryptedValue".</t>
+  </si>
+  <si>
+    <t>Immediately return this expression instead of assigning it to the temporary variable "decryptedValue".</t>
+  </si>
+  <si>
+    <t>complex code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Override "equals(Object obj)" to comply with the contract of the "compareTo(T o)" method.</t>
+  </si>
+  <si>
+    <t>Remove this unused "obscuringItem" private field.</t>
+  </si>
+  <si>
+    <t>bad practice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SonarQube2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>major</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1286,7 +1396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1337,17 +1447,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1388,7 +1487,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1663,7 +1762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1671,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E213" sqref="E213"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5076,8 +5175,8 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="8" t="s">
-        <v>217</v>
+      <c r="A101" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>7</v>
@@ -5118,8 +5217,8 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="8" t="s">
-        <v>217</v>
+      <c r="A104" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>12</v>
@@ -5328,8 +5427,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="8" t="s">
-        <v>217</v>
+      <c r="A119" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D119" s="9" t="s">
         <v>24</v>
@@ -5412,8 +5511,8 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="8" t="s">
-        <v>217</v>
+      <c r="A125" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>31</v>
@@ -5440,8 +5539,8 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="8" t="s">
-        <v>217</v>
+      <c r="A127" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>31</v>
@@ -5468,8 +5567,8 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="8" t="s">
-        <v>217</v>
+      <c r="A129" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>34</v>
@@ -6322,8 +6421,8 @@
       </c>
     </row>
     <row r="190" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="8" t="s">
-        <v>217</v>
+      <c r="A190" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>112</v>
@@ -6336,8 +6435,8 @@
       </c>
     </row>
     <row r="191" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="8" t="s">
-        <v>217</v>
+      <c r="A191" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D191" s="7" t="s">
         <v>113</v>
@@ -6559,9 +6658,312 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H207" s="11" t="s">
+    <row r="207" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A214" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D214" s="7" t="s">
         <v>381</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
